--- a/biology/Zoologie/Hylophorbus_rufescens/Hylophorbus_rufescens.xlsx
+++ b/biology/Zoologie/Hylophorbus_rufescens/Hylophorbus_rufescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylophorbus rufescens est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylophorbus rufescens est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'UICN, ce taxon serait un complexe de plusieurs espèces. Par ailleurs les sous-espèces Hylophorbus rufescens extimus, présente sur l'île Vanatinai, et Hylophorbus rufescens myopicus de l'île de Woodlark, décrites par Zweifel en 1972, devraient accéder au rang d'espèce à part entière.
 </t>
@@ -542,9 +556,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous-espèces selon Zweifel, 1972[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous-espèces selon Zweifel, 1972 :
 Hylophorbus rufescens extimus Zweifel, 1972
 Hylophorbus rufescens myopicus Zweifel, 1972
 Hylophorbus rufescens rufescens Macleay, 1878</t>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée. Son aire de répartition concerne pratiquement toute l'île ainsi que plusieurs petites îles alentour. Elle est présente jusqu'à une altitude maximale de 3 570 m[1],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée. Son aire de répartition concerne pratiquement toute l'île ainsi que plusieurs petites îles alentour. Elle est présente jusqu'à une altitude maximale de 3 570 m,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Macleay, 1878 : The Batrachians of the "Chevert" Expedition. Proceedings of the Linnean Society of New South Wales, vol. 2, p. 135-138 (texte intégral).
 Méhelÿ, 1901 : Beiträge zur Kenntnis der Engystomatiden von Neu-Guinea. Természetrajzi Füzetek, vol. 24, p. 169–271 (texte intégral).
